--- a/tests/frameworks/framework_sir_badcascade1.xlsx
+++ b/tests/frameworks/framework_sir_badcascade1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDB533-E33D-4C2F-A3D3-038044F45C96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0D10DC-02C9-43B4-9867-6410A3B698CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,9 +1314,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1336,9 +1334,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1358,9 +1354,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1380,9 +1374,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1474,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,9 +1518,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1546,9 +1536,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1566,9 +1554,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1584,9 +1570,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1602,9 +1586,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1620,9 +1602,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1640,9 +1620,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1660,9 +1638,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/tests/frameworks/framework_sir_badcascade1.xlsx
+++ b/tests/frameworks/framework_sir_badcascade1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0D10DC-02C9-43B4-9867-6410A3B698CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2B7E2-A2B1-4665-A65B-B08769C37C38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -720,9 +720,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>Is Impact</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -733,6 +730,9 @@
   </si>
   <si>
     <t>The SIR model</t>
+  </si>
+  <si>
+    <t>Targetable</t>
   </si>
 </sst>
 </file>
@@ -1160,18 +1160,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1658,7 +1658,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1687,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>

--- a/tests/frameworks/framework_sir_badcascade1.xlsx
+++ b/tests/frameworks/framework_sir_badcascade1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2B7E2-A2B1-4665-A65B-B08769C37C38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -20,17 +19,17 @@
     <sheet name="Characteristics" sheetId="3" r:id="rId5"/>
     <sheet name="Parameters" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A933BB2F-BD44-4AA3-9747-9EE271A8A43E}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C9FAE90-07ED-44EF-9D3B-D0E0456BD991}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,12 +73,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{366F887C-C07F-4154-8785-9BDF4F8B6839}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3881AE7E-FAB1-4967-BFF9-35EC5F9DF654}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,12 +256,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CC0CB859-3F5D-43C9-94B0-27F5CB43D565}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A1CB8378-C4D4-4895-97A1-EAB67B145FFE}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,12 +412,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{65E32CD1-EF29-4034-8FD9-2B2CA808AD0D}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -738,7 +737,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,23 +904,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -957,23 +939,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,16 +1114,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A224E424-D7C4-446D-A46F-73A4430DA45C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -1166,7 +1131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
@@ -1180,19 +1145,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C4163-0781-4E11-A6B9-0912B33A6E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1200,7 +1165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1208,7 +1173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1216,35 +1181,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1255,20 +1220,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1281,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1301,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1321,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1343,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{EB410747-7D07-4683-B8BD-9F706D62D425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1388,19 +1353,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1418,7 +1383,7 @@
         <v>dead</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1430,7 +1395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="str">
         <f>Compartments!A3</f>
         <v>inf</v>
@@ -1442,7 +1407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="str">
         <f>Compartments!A4</f>
         <v>rec</v>
@@ -1451,7 +1416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="str">
         <f>Compartments!A5</f>
         <v>dead</v>
@@ -1463,25 +1428,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.68359375" customWidth="1"/>
+    <col min="4" max="5" width="20.68359375" customWidth="1"/>
+    <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1490,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1545,7 +1510,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1561,7 +1526,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1542,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1558,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1611,7 +1576,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1629,7 +1594,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1654,26 +1619,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26171875" customWidth="1"/>
+    <col min="6" max="6" width="20.578125" customWidth="1"/>
+    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1721,7 +1686,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1743,32 +1708,37 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
@@ -1777,17 +1747,17 @@
         <v>20</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5">
-        <v>0.5</v>
+      <c r="G5" s="8">
+        <v>1.6E-2</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1800,31 +1770,26 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/frameworks/framework_sir_badcascade1.xlsx
+++ b/tests/frameworks/framework_sir_badcascade1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FDBE4-9F55-4088-A906-7D1BD4C4B0B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -19,17 +20,24 @@
     <sheet name="Characteristics" sheetId="3" r:id="rId5"/>
     <sheet name="Parameters" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,12 +81,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -256,12 +264,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -412,12 +420,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -488,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -501,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>Code Name</t>
   </si>
@@ -737,7 +745,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,6 +912,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -939,6 +964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1114,16 +1156,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -1131,7 +1173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
@@ -1145,19 +1187,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.68359375" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1165,7 +1207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1173,7 +1215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1181,35 +1223,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1220,20 +1262,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1323,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1343,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1363,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1385,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1353,19 +1395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1383,7 +1425,7 @@
         <v>dead</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1395,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!A3</f>
         <v>inf</v>
@@ -1407,7 +1449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!A4</f>
         <v>rec</v>
@@ -1416,7 +1458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Compartments!A5</f>
         <v>dead</v>
@@ -1428,25 +1470,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.68359375" customWidth="1"/>
-    <col min="4" max="5" width="20.68359375" customWidth="1"/>
-    <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1490,7 +1532,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1510,7 +1552,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1526,7 +1568,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1584,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1600,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1576,7 +1618,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1636,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1619,26 +1661,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E8" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26171875" customWidth="1"/>
-    <col min="6" max="6" width="20.578125" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="96.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1677,16 +1719,14 @@
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1699,16 +1739,14 @@
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3">
         <v>80</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1721,16 +1759,14 @@
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4">
         <v>0.5</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1743,16 +1779,14 @@
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="8">
         <v>1.6E-2</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1765,16 +1799,14 @@
       <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
